--- a/RUDN/Importance/Varible_muatal_reg_in_Northern America.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Northern America.xlsx
@@ -19,12 +19,12 @@
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
@@ -43,12 +43,12 @@
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
@@ -67,6 +67,9 @@
     <t>Female population 50-54</t>
   </si>
   <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
     <t>Male population 50-54</t>
   </si>
   <si>
@@ -79,18 +82,15 @@
     <t>Male population 75-79</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
     <t>Female population 80+</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>Male population 10-14</t>
   </si>
   <si>
+    <t>Population, total</t>
+  </si>
+  <si>
     <t>Population, female</t>
   </si>
   <si>
-    <t>Population, total</t>
-  </si>
-  <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
@@ -187,27 +187,27 @@
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t>Female population 65-69</t>
   </si>
   <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
     <t>Male population 70-74</t>
   </si>
   <si>
@@ -295,24 +295,24 @@
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
@@ -334,12 +334,12 @@
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
     <t>Female population 75-79</t>
   </si>
   <si>
@@ -349,21 +349,21 @@
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
@@ -409,12 +409,12 @@
     <t>Female population 45-49</t>
   </si>
   <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
     <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
   </si>
   <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
@@ -475,10 +475,13 @@
     <t>Male population 15-19</t>
   </si>
   <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
     <t>Total bilateral ODA commitments (current US$)</t>
   </si>
   <si>
-    <t>Male population 35-39</t>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
   </si>
   <si>
     <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
@@ -490,261 +493,267 @@
     <t>Number of infant deaths</t>
   </si>
   <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>Gross capital formation (% of GDP)</t>
+    <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
     <t>Total bilateral sector allocable ODA commitments (current US$)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
     <t>Population ages 0-14, male</t>
   </si>
   <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
     <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
@@ -763,345 +772,336 @@
     <t>Self-employed, male (% of male employment)</t>
   </si>
   <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
   </si>
   <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
   </si>
   <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
     <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
@@ -1120,22 +1120,22 @@
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
+    <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
     <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
     <t>GDP growth (annual %)</t>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.419087679481017</v>
+        <v>1.433434443827781</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.352972028749981</v>
+        <v>1.36151903729699</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.352972028749981</v>
+        <v>1.36151903729699</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.212326847720185</v>
+        <v>1.220873856267194</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.161019089315111</v>
+        <v>1.146489174785196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.010166452457498</v>
+        <v>1.033670725961771</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1612,7 +1612,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8133994826699329</v>
+        <v>0.8219464912169414</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7079327437958611</v>
+        <v>0.7114026363498529</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7061724670355853</v>
+        <v>0.7079327437958611</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7051346159977334</v>
+        <v>0.7061724670355853</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1684,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7038525647156828</v>
+        <v>0.7051346159977334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1692,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7007593616224788</v>
+        <v>0.7038525647156828</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1700,7 +1700,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7001673004476452</v>
+        <v>0.7013692080383664</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6973182975986421</v>
+        <v>0.7007593616224788</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1716,7 +1716,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.696445371392588</v>
+        <v>0.6992749730106944</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1860,7 +1860,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.6779346702098732</v>
+        <v>0.6767691690443722</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.5874161046894772</v>
+        <v>0.5921614780245956</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2308,7 +2308,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.5868195976827153</v>
+        <v>0.5874161046894772</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2572,7 +2572,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.4804962913594093</v>
+        <v>0.4855967464598641</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2580,7 +2580,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.4804685413316589</v>
+        <v>0.4804962913594093</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2748,7 +2748,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.4159677570440465</v>
+        <v>0.4152883511514696</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2756,7 +2756,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.4152883511514696</v>
+        <v>0.4074207484970385</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.4031306764969782</v>
+        <v>0.4049159118590742</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2772,7 +2772,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.4016556875188055</v>
+        <v>0.4031306764969782</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2780,7 +2780,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.3978095336726521</v>
+        <v>0.4016556875188055</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2788,7 +2788,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.3953772317990061</v>
+        <v>0.3978095336726521</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2804,7 +2804,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.3902559662452783</v>
+        <v>0.3927582458466867</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2820,7 +2820,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.3818421677052861</v>
+        <v>0.3902559662452783</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2828,7 +2828,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.381840734163128</v>
+        <v>0.3818421677052861</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2836,7 +2836,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.379705415568534</v>
+        <v>0.381840734163128</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2868,7 +2868,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.3793955845256083</v>
+        <v>0.379705415568534</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2876,7 +2876,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.3775686634317819</v>
+        <v>0.3793955845256083</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.3750013819445444</v>
+        <v>0.3775686634317819</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4516,7 +4516,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.02400519282020364</v>
+        <v>0.01438980820481905</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4524,7 +4524,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.02302471989995825</v>
+        <v>0.0017996486748868</v>
       </c>
     </row>
     <row r="378" spans="1:2">
